--- a/Fashion-MNIST/resultadosMobileNet/MobileNet-FP32_1/metricas_modelos_treino.xlsx
+++ b/Fashion-MNIST/resultadosMobileNet/MobileNet-FP32_1/metricas_modelos_treino.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1619518192095372</v>
+        <v>0.6438428682088851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9445416666666666</v>
+        <v>0.7618125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3377444689075152</v>
+        <v>0.7533295064767201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.89575</v>
+        <v>0.7209166666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>315.385497</v>
+        <v>112.846194</v>
       </c>
       <c r="G2" t="n">
-        <v>1027.674</v>
+        <v>314.354</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008446695227428621</v>
+        <v>0.000300937424737193</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1528360875170523</v>
+        <v>0.6886205844680469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.94721875</v>
+        <v>0.7443437500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3850704339817166</v>
+        <v>0.7644814772605896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.892375</v>
+        <v>0.71775</v>
       </c>
       <c r="F3" t="n">
-        <v>337.7228865</v>
+        <v>101.5234265</v>
       </c>
       <c r="G3" t="n">
-        <v>1108.076</v>
+        <v>274.738</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009037497128210594</v>
+        <v>0.0002744232698144741</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1578323709056713</v>
+        <v>0.6833296587003602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9455972222222222</v>
+        <v>0.745736111111111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3685597504095899</v>
+        <v>0.7750326640341018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8922222222222222</v>
+        <v>0.7121111111111111</v>
       </c>
       <c r="F4" t="n">
-        <v>322.7961086666666</v>
+        <v>105.2677033333333</v>
       </c>
       <c r="G4" t="n">
-        <v>1054.580666666667</v>
+        <v>287.6376666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008629017466321469</v>
+        <v>0.000282978618792564</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1601589968336436</v>
+        <v>0.6665301412343979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9442239583333333</v>
+        <v>0.7522604166666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3633777706952145</v>
+        <v>0.7603648163576922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8919791666666667</v>
+        <v>0.7173541666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>315.36650725</v>
+        <v>107.07163875</v>
       </c>
       <c r="G5" t="n">
-        <v>1028.118</v>
+        <v>293.74425</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008423932206331329</v>
+        <v>0.0002872043770753665</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1569430609928754</v>
+        <v>0.6792291744669279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9455625</v>
+        <v>0.7478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3637901919792096</v>
+        <v>0.7641830133358638</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.7167333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>319.8884806</v>
+        <v>103.679917</v>
       </c>
       <c r="G6" t="n">
-        <v>1043.7712</v>
+        <v>282.1006</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008538719754420141</v>
+        <v>0.0002791989652630833</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1560979544696036</v>
+        <v>0.6829685753915045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9457777777777777</v>
+        <v>0.7458125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3623697624496288</v>
+        <v>0.7623161721229553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8929027777777779</v>
+        <v>0.7155972222222222</v>
       </c>
       <c r="F7" t="n">
-        <v>323.0545656666666</v>
+        <v>101.4750403333333</v>
       </c>
       <c r="G7" t="n">
-        <v>1053.660666666667</v>
+        <v>274.2405000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008620822757732052</v>
+        <v>0.0002739457089293719</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1530724698073186</v>
+        <v>0.6867679728042512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9469970238095238</v>
+        <v>0.7442767857142857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367884300415005</v>
+        <v>0.7591504801795596</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8930595238095239</v>
+        <v>0.7158809523809524</v>
       </c>
       <c r="F8" t="n">
-        <v>328.3979085714286</v>
+        <v>99.83938685714286</v>
       </c>
       <c r="G8" t="n">
-        <v>1071.773857142857</v>
+        <v>268.6521428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000877057538578185</v>
+        <v>0.0002701785051778528</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1540384061016181</v>
+        <v>0.706358051535984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9465859375000001</v>
+        <v>0.7369609374999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3682187334752331</v>
+        <v>0.7651894803444544</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8928020833333334</v>
+        <v>0.7139270833333333</v>
       </c>
       <c r="F9" t="n">
-        <v>326.781606</v>
+        <v>95.81877825000001</v>
       </c>
       <c r="G9" t="n">
-        <v>1065.783</v>
+        <v>254.667625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008734238615515807</v>
+        <v>0.0002589877709570883</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1557918615423281</v>
+        <v>0.7057259600692326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9457870370370371</v>
+        <v>0.7374768518518517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3651863780601157</v>
+        <v>0.7661157591078016</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8925370370370371</v>
+        <v>0.7140185185185186</v>
       </c>
       <c r="F10" t="n">
-        <v>323.0682984444445</v>
+        <v>95.21511622222222</v>
       </c>
       <c r="G10" t="n">
-        <v>1052.116444444444</v>
+        <v>252.458</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008631293088083394</v>
+        <v>0.0002577500188294907</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1569964234290024</v>
+        <v>0.7079461269319058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9453770833333335</v>
+        <v>0.7364875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3630460772270957</v>
+        <v>0.7667096913655598</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8922333333333334</v>
+        <v>0.7139083333333334</v>
       </c>
       <c r="F11" t="n">
-        <v>320.0455684</v>
+        <v>94.72140640000001</v>
       </c>
       <c r="G11" t="n">
-        <v>1041.6503</v>
+        <v>250.6585</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008547261628554972</v>
+        <v>0.0002568364468169717</v>
       </c>
     </row>
   </sheetData>
